--- a/src/sw_character_generator/data/Buch1.xlsx
+++ b/src/sw_character_generator/data/Buch1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -436,6 +436,36 @@
   </si>
   <si>
     <t>Wurfspieß</t>
+  </si>
+  <si>
+    <t>Schild</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>Lederpanzer</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>Brünne</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Kettenhemd</t>
+  </si>
+  <si>
+    <t>Plattenpanzer</t>
+  </si>
+  <si>
+    <t>heavy</t>
   </si>
 </sst>
 </file>
@@ -470,11 +500,10 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,7 +1002,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -1054,13 +1083,13 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J2">
@@ -1071,31 +1100,34 @@
       </c>
       <c r="L2">
         <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J3">
@@ -1106,31 +1138,34 @@
       </c>
       <c r="L3">
         <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J4">
@@ -1141,31 +1176,34 @@
       </c>
       <c r="L4">
         <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J5">
@@ -1176,31 +1214,34 @@
       </c>
       <c r="L5">
         <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J6">
@@ -1211,31 +1252,34 @@
       </c>
       <c r="L6">
         <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J7">
@@ -1246,6 +1290,9 @@
       </c>
       <c r="L7">
         <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" ht="14.25">
@@ -1258,19 +1305,19 @@
       <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J8">
@@ -1281,31 +1328,34 @@
       </c>
       <c r="L8">
         <v>0</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J9">
@@ -1316,31 +1366,34 @@
       </c>
       <c r="L9">
         <v>0</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J10">
@@ -1351,31 +1404,34 @@
       </c>
       <c r="L10">
         <v>0</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J11">
@@ -1386,31 +1442,34 @@
       </c>
       <c r="L11">
         <v>0</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J12">
@@ -1422,30 +1481,33 @@
       <c r="L12">
         <v>0</v>
       </c>
+      <c r="M12" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J13">
@@ -1456,31 +1518,34 @@
       </c>
       <c r="L13">
         <v>0</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J14">
@@ -1491,31 +1556,34 @@
       </c>
       <c r="L14">
         <v>0</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="G15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J15">
@@ -1526,31 +1594,34 @@
       </c>
       <c r="L15">
         <v>0</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J16">
@@ -1561,31 +1632,34 @@
       </c>
       <c r="L16">
         <v>0</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J17">
@@ -1596,31 +1670,34 @@
       </c>
       <c r="L17">
         <v>0</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="G18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J18">
@@ -1631,31 +1708,34 @@
       </c>
       <c r="L18">
         <v>0</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="G19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J19">
@@ -1666,31 +1746,34 @@
       </c>
       <c r="L19">
         <v>0</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="G20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J20">
@@ -1701,31 +1784,34 @@
       </c>
       <c r="L20">
         <v>0</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="G21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J21">
@@ -1736,31 +1822,34 @@
       </c>
       <c r="L21">
         <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="G22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J22">
@@ -1771,31 +1860,34 @@
       </c>
       <c r="L22">
         <v>0</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="G23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J23">
@@ -1806,31 +1898,34 @@
       </c>
       <c r="L23">
         <v>0</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="G24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J24">
@@ -1841,31 +1936,34 @@
       </c>
       <c r="L24">
         <v>0</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="G25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J25">
@@ -1876,31 +1974,34 @@
       </c>
       <c r="L25">
         <v>0</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="G26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J26">
@@ -1911,31 +2012,34 @@
       </c>
       <c r="L26">
         <v>0</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="G27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J27">
@@ -1946,31 +2050,34 @@
       </c>
       <c r="L27">
         <v>0</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="G28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J28">
@@ -1981,31 +2088,34 @@
       </c>
       <c r="L28">
         <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="G29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J29">
@@ -2016,31 +2126,34 @@
       </c>
       <c r="L29">
         <v>0</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J30">
@@ -2051,31 +2164,34 @@
       </c>
       <c r="L30">
         <v>0</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="G31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J31">
@@ -2086,31 +2202,34 @@
       </c>
       <c r="L31">
         <v>0</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="G32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J32">
@@ -2121,31 +2240,34 @@
       </c>
       <c r="L32">
         <v>0</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="G33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J33">
@@ -2156,31 +2278,34 @@
       </c>
       <c r="L33">
         <v>0</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="G34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J34">
@@ -2191,31 +2316,34 @@
       </c>
       <c r="L34">
         <v>0</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C35" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="G35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J35">
@@ -2226,31 +2354,34 @@
       </c>
       <c r="L35">
         <v>0</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="G36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J36">
@@ -2261,31 +2392,34 @@
       </c>
       <c r="L36">
         <v>0</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="2" t="s">
+      <c r="G37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J37">
@@ -2296,31 +2430,34 @@
       </c>
       <c r="L37">
         <v>0</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="G38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J38">
@@ -2331,31 +2468,34 @@
       </c>
       <c r="L38">
         <v>0</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="2" t="s">
+      <c r="G39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J39">
@@ -2366,31 +2506,34 @@
       </c>
       <c r="L39">
         <v>0</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C40" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="2" t="s">
+      <c r="G40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J40">
@@ -2401,31 +2544,34 @@
       </c>
       <c r="L40">
         <v>0</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="2" t="s">
+      <c r="G41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J41">
@@ -2437,30 +2583,33 @@
       <c r="L41">
         <v>0</v>
       </c>
+      <c r="M41" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C42" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="2" t="s">
+      <c r="G42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J42">
@@ -2471,31 +2620,34 @@
       </c>
       <c r="L42">
         <v>0</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C43" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" s="2" t="s">
+      <c r="G43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J43">
@@ -2506,31 +2658,34 @@
       </c>
       <c r="L43">
         <v>0</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="2" t="s">
+      <c r="G44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J44">
@@ -2541,31 +2696,34 @@
       </c>
       <c r="L44">
         <v>0</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" s="2" t="s">
+      <c r="G45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J45">
@@ -2576,31 +2734,34 @@
       </c>
       <c r="L45">
         <v>0</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C46" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="2" t="s">
+      <c r="G46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J46">
@@ -2611,31 +2772,34 @@
       </c>
       <c r="L46">
         <v>0</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C47" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="2" t="s">
+      <c r="G47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J47">
@@ -2646,31 +2810,34 @@
       </c>
       <c r="L47">
         <v>0</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C48" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="2" t="s">
+      <c r="G48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J48">
@@ -2681,31 +2848,34 @@
       </c>
       <c r="L48">
         <v>0</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C49" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="2" t="s">
+      <c r="G49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J49">
@@ -2716,31 +2886,34 @@
       </c>
       <c r="L49">
         <v>0</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C50" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="2" t="s">
+      <c r="G50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J50">
@@ -2751,31 +2924,34 @@
       </c>
       <c r="L50">
         <v>0</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="2" t="s">
+      <c r="G51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J51">
@@ -2786,31 +2962,34 @@
       </c>
       <c r="L51">
         <v>0</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C52" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="2" t="s">
+      <c r="G52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J52">
@@ -2821,31 +3000,34 @@
       </c>
       <c r="L52">
         <v>0</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C53" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="2" t="s">
+      <c r="G53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J53">
@@ -2856,31 +3038,34 @@
       </c>
       <c r="L53">
         <v>0</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="14.25">
       <c r="A54" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C54" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="2" t="s">
+      <c r="G54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J54">
@@ -2891,31 +3076,34 @@
       </c>
       <c r="L54">
         <v>0</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C55" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="2" t="s">
+      <c r="G55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J55">
@@ -2926,28 +3114,31 @@
       </c>
       <c r="L55">
         <v>0</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="2" t="s">
+      <c r="G56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I56" t="s">
@@ -2961,6 +3152,9 @@
       </c>
       <c r="L56">
         <v>0</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="14.25">
@@ -2982,7 +3176,7 @@
       <c r="F57">
         <v>0</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H57" t="s">
@@ -2999,13 +3193,16 @@
       </c>
       <c r="L57">
         <v>0</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C58" t="s">
@@ -3020,13 +3217,13 @@
       <c r="F58">
         <v>0</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H58" t="s">
         <v>102</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J58">
@@ -3037,13 +3234,16 @@
       </c>
       <c r="L58">
         <v>0</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C59" t="s">
@@ -3058,13 +3258,13 @@
       <c r="F59">
         <v>0</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H59" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J59">
@@ -3075,13 +3275,16 @@
       </c>
       <c r="L59">
         <v>0</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C60" t="s">
@@ -3096,13 +3299,13 @@
       <c r="F60">
         <v>0</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H60" t="s">
         <v>19</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J60">
@@ -3113,13 +3316,16 @@
       </c>
       <c r="L60">
         <v>0</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="A61" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C61" t="s">
@@ -3134,13 +3340,13 @@
       <c r="F61">
         <v>0</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H61" t="s">
         <v>19</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J61">
@@ -3151,13 +3357,16 @@
       </c>
       <c r="L61">
         <v>0</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="A62" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C62" t="s">
@@ -3172,13 +3381,13 @@
       <c r="F62">
         <v>0</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H62" t="s">
         <v>19</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J62">
@@ -3189,13 +3398,16 @@
       </c>
       <c r="L62">
         <v>0</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="14.25">
       <c r="A63" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C63" t="s">
@@ -3210,13 +3422,13 @@
       <c r="F63">
         <v>0</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H63" t="s">
         <v>102</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J63">
@@ -3227,13 +3439,16 @@
       </c>
       <c r="L63">
         <v>0</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C64" t="s">
@@ -3248,13 +3463,13 @@
       <c r="F64">
         <v>0</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H64" t="s">
         <v>19</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J64">
@@ -3265,13 +3480,16 @@
       </c>
       <c r="L64">
         <v>0</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C65" t="s">
@@ -3292,7 +3510,7 @@
       <c r="H65" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J65">
@@ -3303,13 +3521,16 @@
       </c>
       <c r="L65">
         <v>0</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="A66" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C66" t="s">
@@ -3330,7 +3551,7 @@
       <c r="H66" t="s">
         <v>19</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J66">
@@ -3341,13 +3562,16 @@
       </c>
       <c r="L66">
         <v>0</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C67" t="s">
@@ -3368,7 +3592,7 @@
       <c r="H67" t="s">
         <v>102</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J67">
@@ -3379,13 +3603,16 @@
       </c>
       <c r="L67">
         <v>0</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C68" t="s">
@@ -3406,7 +3633,7 @@
       <c r="H68" t="s">
         <v>19</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J68">
@@ -3417,13 +3644,16 @@
       </c>
       <c r="L68">
         <v>0</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C69" t="s">
@@ -3441,10 +3671,10 @@
       <c r="G69" t="s">
         <v>102</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" s="2" t="s">
+      <c r="H69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J69">
@@ -3455,13 +3685,16 @@
       </c>
       <c r="L69">
         <v>0</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C70" t="s">
@@ -3479,10 +3712,10 @@
       <c r="G70" t="s">
         <v>102</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" s="2" t="s">
+      <c r="H70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J70">
@@ -3493,13 +3726,16 @@
       </c>
       <c r="L70">
         <v>0</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C71" t="s">
@@ -3517,10 +3753,10 @@
       <c r="G71" t="s">
         <v>19</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" s="2" t="s">
+      <c r="H71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J71">
@@ -3531,13 +3767,16 @@
       </c>
       <c r="L71">
         <v>0</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C72" t="s">
@@ -3555,7 +3794,7 @@
       <c r="G72" t="s">
         <v>102</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I72" t="s">
@@ -3568,6 +3807,9 @@
         <v>1</v>
       </c>
       <c r="L72">
+        <v>18</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3575,7 +3817,7 @@
       <c r="A73" t="s">
         <v>127</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C73" t="s">
@@ -3593,7 +3835,7 @@
       <c r="G73" t="s">
         <v>102</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I73" t="s">
@@ -3607,13 +3849,16 @@
       </c>
       <c r="L73">
         <v>24</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C74" t="s">
@@ -3631,10 +3876,10 @@
       <c r="G74" t="s">
         <v>19</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I74" s="2" t="s">
+      <c r="H74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J74">
@@ -3645,13 +3890,16 @@
       </c>
       <c r="L74">
         <v>3</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="14.25">
       <c r="A75" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C75">
@@ -3669,10 +3917,10 @@
       <c r="G75" t="s">
         <v>102</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I75" s="2" t="s">
+      <c r="H75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>129</v>
       </c>
       <c r="J75">
@@ -3683,13 +3931,16 @@
       </c>
       <c r="L75">
         <v>15</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="14.25">
       <c r="A76" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C76">
@@ -3707,10 +3958,10 @@
       <c r="G76" t="s">
         <v>102</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I76" s="2" t="s">
+      <c r="H76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>129</v>
       </c>
       <c r="J76">
@@ -3721,13 +3972,16 @@
       </c>
       <c r="L76">
         <v>21</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="14.25">
       <c r="A77" t="s">
         <v>131</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C77">
@@ -3745,10 +3999,10 @@
       <c r="G77" t="s">
         <v>18</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I77" s="2" t="s">
+      <c r="H77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>129</v>
       </c>
       <c r="J77">
@@ -3759,13 +4013,16 @@
       </c>
       <c r="L77">
         <v>0</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="14.25">
       <c r="A78" t="s">
         <v>132</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C78">
@@ -3783,10 +4040,10 @@
       <c r="G78" t="s">
         <v>18</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" s="2" t="s">
+      <c r="H78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>129</v>
       </c>
       <c r="J78">
@@ -3797,13 +4054,16 @@
       </c>
       <c r="L78">
         <v>0</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="14.25">
       <c r="A79" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C79">
@@ -3821,10 +4081,10 @@
       <c r="G79" t="s">
         <v>19</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I79" s="2" t="s">
+      <c r="H79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J79">
@@ -3835,13 +4095,16 @@
       </c>
       <c r="L79">
         <v>3</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="14.25">
       <c r="A80" t="s">
         <v>134</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C80">
@@ -3859,7 +4122,7 @@
       <c r="G80" t="s">
         <v>18</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I80" t="s">
@@ -3873,13 +4136,16 @@
       </c>
       <c r="L80">
         <v>0</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
         <v>135</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C81" t="s">
@@ -3897,7 +4163,7 @@
       <c r="G81" t="s">
         <v>102</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I81" t="s">
@@ -3911,13 +4177,16 @@
       </c>
       <c r="L81">
         <v>12</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
         <v>119</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C82">
@@ -3935,7 +4204,7 @@
       <c r="G82" t="s">
         <v>19</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I82" t="s">
@@ -3949,13 +4218,16 @@
       </c>
       <c r="L82">
         <v>6</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="14.25">
       <c r="A83" t="s">
         <v>136</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C83">
@@ -3973,7 +4245,7 @@
       <c r="G83" t="s">
         <v>18</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I83" t="s">
@@ -3987,13 +4259,16 @@
       </c>
       <c r="L83">
         <v>0</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="14.25">
       <c r="A84" t="s">
         <v>137</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C84" t="s">
@@ -4011,7 +4286,7 @@
       <c r="G84" t="s">
         <v>19</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H84" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I84" t="s">
@@ -4025,13 +4300,16 @@
       </c>
       <c r="L84">
         <v>4.5</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="14.25">
       <c r="A85" t="s">
         <v>139</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C85" t="s">
@@ -4049,7 +4327,7 @@
       <c r="G85" t="s">
         <v>19</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I85" t="s">
@@ -4064,249 +4342,218 @@
       <c r="L85">
         <v>6</v>
       </c>
+      <c r="M85" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="86" ht="14.25">
-      <c r="B86"/>
-      <c r="I86"/>
+      <c r="A86" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="87" ht="14.25">
-      <c r="B87"/>
-      <c r="I87"/>
+      <c r="A87" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>25</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="88" ht="14.25">
-      <c r="B88"/>
-      <c r="I88"/>
+      <c r="A88" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88">
+        <v>30</v>
+      </c>
+      <c r="D88">
+        <v>40</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="89" ht="14.25">
-      <c r="B89" s="3"/>
-      <c r="I89"/>
+      <c r="A89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89">
+        <v>75</v>
+      </c>
+      <c r="D89">
+        <v>25</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="90" ht="14.25">
-      <c r="B90"/>
-      <c r="I90"/>
+      <c r="A90" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90">
+        <v>100</v>
+      </c>
+      <c r="D90">
+        <v>35</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="91" ht="14.25">
-      <c r="B91"/>
-      <c r="I91"/>
-    </row>
-    <row r="92" ht="14.25">
-      <c r="B92"/>
-    </row>
-    <row r="93" ht="14.25">
-      <c r="B93"/>
-    </row>
-    <row r="94" ht="14.25">
-      <c r="B94"/>
-    </row>
-    <row r="95" ht="14.25">
-      <c r="B95"/>
-    </row>
-    <row r="96" ht="14.25">
-      <c r="B96"/>
-    </row>
-    <row r="97" ht="14.25">
-      <c r="B97"/>
-    </row>
-    <row r="98" ht="14.25">
-      <c r="B98"/>
-    </row>
-    <row r="99" ht="14.25">
-      <c r="B99"/>
-    </row>
-    <row r="100" ht="14.25">
-      <c r="B100"/>
-    </row>
-    <row r="101" ht="14.25">
-      <c r="B101"/>
-    </row>
-    <row r="102" ht="14.25">
-      <c r="B102"/>
-    </row>
-    <row r="103" ht="14.25">
-      <c r="B103"/>
-    </row>
-    <row r="104" ht="14.25">
-      <c r="B104"/>
-    </row>
-    <row r="105" ht="14.25">
-      <c r="B105"/>
-    </row>
-    <row r="106" ht="14.25">
-      <c r="B106"/>
-    </row>
-    <row r="107" ht="14.25">
-      <c r="B107"/>
-    </row>
-    <row r="108" ht="14.25">
-      <c r="B108"/>
-    </row>
-    <row r="109" ht="14.25">
-      <c r="B109"/>
-    </row>
-    <row r="110" ht="14.25">
-      <c r="B110"/>
-    </row>
-    <row r="111" ht="14.25">
-      <c r="B111"/>
-    </row>
-    <row r="112" ht="14.25">
-      <c r="B112"/>
-    </row>
-    <row r="113" ht="14.25">
-      <c r="B113"/>
-    </row>
-    <row r="114" ht="14.25">
-      <c r="B114"/>
-    </row>
-    <row r="115" ht="14.25">
-      <c r="B115"/>
-    </row>
-    <row r="116" ht="14.25">
-      <c r="B116"/>
-    </row>
-    <row r="117" ht="14.25">
-      <c r="B117"/>
-    </row>
-    <row r="118" ht="14.25">
-      <c r="B118"/>
-    </row>
-    <row r="119" ht="14.25">
-      <c r="B119"/>
-    </row>
-    <row r="120" ht="14.25">
-      <c r="B120"/>
-    </row>
-    <row r="121" ht="14.25">
-      <c r="B121"/>
-    </row>
-    <row r="122" ht="14.25">
-      <c r="B122"/>
-    </row>
-    <row r="123" ht="14.25">
-      <c r="B123"/>
-    </row>
-    <row r="124" ht="14.25">
-      <c r="B124"/>
-    </row>
-    <row r="125" ht="14.25">
-      <c r="B125"/>
-    </row>
-    <row r="126" ht="14.25">
-      <c r="B126"/>
-    </row>
-    <row r="127" ht="14.25">
-      <c r="B127"/>
-    </row>
-    <row r="128" ht="14.25">
-      <c r="B128"/>
-    </row>
-    <row r="129" ht="14.25">
-      <c r="B129"/>
-    </row>
-    <row r="130" ht="14.25">
-      <c r="B130"/>
-    </row>
-    <row r="131" ht="14.25">
-      <c r="B131"/>
-    </row>
-    <row r="132" ht="14.25">
-      <c r="B132"/>
-    </row>
-    <row r="133" ht="14.25">
-      <c r="B133"/>
-    </row>
-    <row r="134" ht="14.25">
-      <c r="B134"/>
-    </row>
-    <row r="135" ht="14.25">
-      <c r="B135"/>
-    </row>
-    <row r="136" ht="14.25">
-      <c r="B136"/>
-    </row>
-    <row r="137" ht="14.25">
-      <c r="B137"/>
-    </row>
-    <row r="138" ht="14.25">
-      <c r="B138"/>
-    </row>
-    <row r="139" ht="14.25">
-      <c r="B139"/>
-    </row>
-    <row r="140" ht="14.25">
-      <c r="B140"/>
-    </row>
-    <row r="141" ht="14.25">
-      <c r="B141"/>
-    </row>
-    <row r="142" ht="14.25">
-      <c r="B142"/>
-    </row>
-    <row r="143" ht="14.25">
-      <c r="B143"/>
-    </row>
-    <row r="144" ht="14.25">
-      <c r="B144"/>
-    </row>
-    <row r="145" ht="14.25">
-      <c r="B145"/>
-    </row>
-    <row r="146" ht="14.25">
-      <c r="B146"/>
-    </row>
-    <row r="147" ht="14.25">
-      <c r="B147"/>
-    </row>
-    <row r="148" ht="14.25">
-      <c r="B148"/>
-    </row>
-    <row r="149" ht="14.25">
-      <c r="B149"/>
-    </row>
-    <row r="150" ht="14.25">
-      <c r="B150"/>
-    </row>
-    <row r="151" ht="14.25">
-      <c r="B151"/>
-    </row>
-    <row r="152" ht="14.25">
-      <c r="B152"/>
-    </row>
-    <row r="153" ht="14.25">
-      <c r="B153"/>
-    </row>
-    <row r="154" ht="14.25">
-      <c r="B154"/>
-    </row>
-    <row r="155" ht="14.25">
-      <c r="B155"/>
-    </row>
-    <row r="156" ht="14.25">
-      <c r="B156"/>
-    </row>
-    <row r="157" ht="14.25">
-      <c r="B157"/>
-    </row>
-    <row r="158" ht="14.25">
-      <c r="B158"/>
-    </row>
-    <row r="159" ht="14.25">
-      <c r="B159"/>
-    </row>
-    <row r="160" ht="14.25">
-      <c r="B160"/>
-    </row>
-    <row r="161" ht="14.25">
-      <c r="B161"/>
-    </row>
-    <row r="162" ht="14.25">
-      <c r="B162"/>
-    </row>
-    <row r="163" ht="14.25">
-      <c r="B163"/>
-    </row>
-    <row r="164" ht="14.25">
-      <c r="B164"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
